--- a/52_Нижегородская область/XLSX/52_grid_map_NN.xlsx
+++ b/52_Нижегородская область/XLSX/52_grid_map_NN.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flakon84/Documents/GitHub/Ru_regions_tiled-maps/52_Нижегородская область/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83236865-B573-F849-BBAB-7EDD01EAD0BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77859995-E8D7-7745-B4F6-D84E6F6ED2D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1960" windowWidth="27040" windowHeight="15140" xr2:uid="{81FA90F7-FBB0-6D47-8577-76A7C999504B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arrangement" sheetId="1" r:id="rId1"/>
+    <sheet name="Шаблон_52_Нижегородская область" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>ТОНШ - Тоншаевский</t>
   </si>
@@ -91,6 +92,90 @@
   </si>
   <si>
     <t>НН-Нижний новгород</t>
+  </si>
+  <si>
+    <t>КСТ-Кстовский</t>
+  </si>
+  <si>
+    <t>БМР-Большемурашкинский</t>
+  </si>
+  <si>
+    <t>КНГ-Княгининский</t>
+  </si>
+  <si>
+    <t>СРГ-Сергачский</t>
+  </si>
+  <si>
+    <t>КРО-Краснооктябрьский</t>
+  </si>
+  <si>
+    <t>БОЛ-Большеболдинский</t>
+  </si>
+  <si>
+    <t>ВЛД-Володарский</t>
+  </si>
+  <si>
+    <t>ЧКЛ-Чкаловский</t>
+  </si>
+  <si>
+    <t>ПВЛ-Павловский</t>
+  </si>
+  <si>
+    <t>ССН-Сосновский</t>
+  </si>
+  <si>
+    <t>АРД-Ардатовский</t>
+  </si>
+  <si>
+    <t>ДЛК-Дальнеконстантиновский</t>
+  </si>
+  <si>
+    <t>БГД-Борогодский</t>
+  </si>
+  <si>
+    <t>АРЗ-Арзамасский</t>
+  </si>
+  <si>
+    <t>ШТК-Шатковский</t>
+  </si>
+  <si>
+    <t>ЛУК-Лукояновский</t>
+  </si>
+  <si>
+    <t>ПОЧ-Починковский</t>
+  </si>
+  <si>
+    <t>ПЕР-Перевозский</t>
+  </si>
+  <si>
+    <t>ВАД-Вадский</t>
+  </si>
+  <si>
+    <t>ГАГ-Гагинский</t>
+  </si>
+  <si>
+    <t>ВАЧ-Вачский</t>
+  </si>
+  <si>
+    <t>НАВ-Навашинский</t>
+  </si>
+  <si>
+    <t>КУЛ-Кулебякский</t>
+  </si>
+  <si>
+    <t>ВЫК-Выксунский</t>
+  </si>
+  <si>
+    <t>ВОЗН-Вознесенский</t>
+  </si>
+  <si>
+    <t>ДИВ-Дивеевский</t>
+  </si>
+  <si>
+    <t>ПЕР-Первомайский</t>
+  </si>
+  <si>
+    <t>БУТ-Бутурлинский</t>
   </si>
 </sst>
 </file>
@@ -107,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +298,204 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEA8AFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF61E4AF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBD0300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAA88FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6285E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EBAEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F745"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB95838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF47A00D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAE705"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0E7BE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E064"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFD03"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF05B3AF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4B1B6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73943B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBA439"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0DB8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDCA7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCE9B9A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF656CEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD842"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDF6C00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3606F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDD7C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8DC29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FB6E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE86B07"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCB86B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF662"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF91FF2D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7BF0EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF81FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -285,6 +568,103 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -293,16 +673,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFEA8AFF"/>
-      <color rgb="FF2887E9"/>
-      <color rgb="FF6FEDE8"/>
-      <color rgb="FFF6D0FF"/>
-      <color rgb="FF6DEEE9"/>
-      <color rgb="FF9B2E66"/>
-      <color rgb="FFD8F796"/>
-      <color rgb="FF00CE01"/>
-      <color rgb="FFD0A273"/>
-      <color rgb="FF9D7C47"/>
+      <color rgb="FFBF81FF"/>
+      <color rgb="FF7BF0EE"/>
+      <color rgb="FFE6FA60"/>
+      <color rgb="FF91FF2D"/>
+      <color rgb="FFEAF662"/>
+      <color rgb="FFCB86B7"/>
+      <color rgb="FFE86B07"/>
+      <color rgb="FF8FB6E3"/>
+      <color rgb="FFC8DC29"/>
+      <color rgb="FFDDD7C7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -679,15 +1059,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63E06EF-2944-954C-9372-AAB458A1265C}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -719,186 +1099,234 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>1</v>
+      <c r="F3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="E4" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="1"/>
+      <c r="E5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="H6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1"/>
+      <c r="D6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1"/>
+      <c r="D7" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="C8" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="C9" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="D10" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>27</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -906,14 +1334,28 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B23EB3C-EB86-634E-B7C6-182975E9E4FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/52_Нижегородская область/XLSX/52_grid_map_NN.xlsx
+++ b/52_Нижегородская область/XLSX/52_grid_map_NN.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flakon84/Documents/GitHub/Ru_regions_tiled-maps/52_Нижегородская область/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77859995-E8D7-7745-B4F6-D84E6F6ED2D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96750ECC-8327-8645-BEA6-6CF71B6D8749}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1960" windowWidth="27040" windowHeight="15140" xr2:uid="{81FA90F7-FBB0-6D47-8577-76A7C999504B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{81FA90F7-FBB0-6D47-8577-76A7C999504B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arrangement" sheetId="1" r:id="rId1"/>
-    <sheet name="Шаблон_52_Нижегородская область" sheetId="2" r:id="rId2"/>
+    <sheet name="13_Arrangement" sheetId="1" r:id="rId1"/>
+    <sheet name="VIZ_52_Нижегородская область" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="221">
   <si>
     <t>ТОНШ - Тоншаевский</t>
   </si>
@@ -176,19 +176,608 @@
   </si>
   <si>
     <t>БУТ-Бутурлинский</t>
+  </si>
+  <si>
+    <t>Ардатовский район</t>
+  </si>
+  <si>
+    <r>
+      <t>р.п.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ардатов</t>
+    </r>
+  </si>
+  <si>
+    <t>Арзамасский район</t>
+  </si>
+  <si>
+    <r>
+      <t>г.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Арзамас</t>
+    </r>
+  </si>
+  <si>
+    <t>Балахнинский район</t>
+  </si>
+  <si>
+    <t>г. Балахна</t>
+  </si>
+  <si>
+    <t>Богородский район</t>
+  </si>
+  <si>
+    <t>г. Богородск</t>
+  </si>
+  <si>
+    <t>Большеболдинский район</t>
+  </si>
+  <si>
+    <t>село Большое Болдино</t>
+  </si>
+  <si>
+    <t>Большемурашкинский район</t>
+  </si>
+  <si>
+    <t>р.п. Большое Мурашкино</t>
+  </si>
+  <si>
+    <t>Бутурлинский район</t>
+  </si>
+  <si>
+    <t>р.п. Бутурлино</t>
+  </si>
+  <si>
+    <t>Вадский район</t>
+  </si>
+  <si>
+    <t>село Вад</t>
+  </si>
+  <si>
+    <t>Варнавинский район</t>
+  </si>
+  <si>
+    <t>р.п. Варнавино</t>
+  </si>
+  <si>
+    <t>Вачский район</t>
+  </si>
+  <si>
+    <t>р.п. Вача</t>
+  </si>
+  <si>
+    <t>Ветлужский район</t>
+  </si>
+  <si>
+    <t>г. Ветлуга</t>
+  </si>
+  <si>
+    <t>Вознесенский район</t>
+  </si>
+  <si>
+    <t>р.п. Вознесенское</t>
+  </si>
+  <si>
+    <t>Володарский район</t>
+  </si>
+  <si>
+    <t>г. Володарск</t>
+  </si>
+  <si>
+    <t>Воротынский район</t>
+  </si>
+  <si>
+    <t>р.п. Воротынец</t>
+  </si>
+  <si>
+    <t>Воскресенский район</t>
+  </si>
+  <si>
+    <t>р.п. Воскресенское</t>
+  </si>
+  <si>
+    <t>Гагинский район</t>
+  </si>
+  <si>
+    <t>село Гагино</t>
+  </si>
+  <si>
+    <t>Городецкий район</t>
+  </si>
+  <si>
+    <t>г. Городец</t>
+  </si>
+  <si>
+    <t>Дальнеконстантиновский район</t>
+  </si>
+  <si>
+    <t>р.п. Дальнее Константиново</t>
+  </si>
+  <si>
+    <t>Дивеевский район</t>
+  </si>
+  <si>
+    <t>село Дивеево</t>
+  </si>
+  <si>
+    <t>Княгининский район</t>
+  </si>
+  <si>
+    <t>г. Княгинино</t>
+  </si>
+  <si>
+    <t>Ковернинский район</t>
+  </si>
+  <si>
+    <t>р.п. Ковернино</t>
+  </si>
+  <si>
+    <t>Краснобаковский район</t>
+  </si>
+  <si>
+    <t>р.п. Красные Баки</t>
+  </si>
+  <si>
+    <t>Краснооктябрьский район</t>
+  </si>
+  <si>
+    <t>село Уразовка</t>
+  </si>
+  <si>
+    <t>Кстовский район</t>
+  </si>
+  <si>
+    <t>г. Кстово</t>
+  </si>
+  <si>
+    <t>Лукояновский район</t>
+  </si>
+  <si>
+    <t>г. Лукоянов</t>
+  </si>
+  <si>
+    <t>Лысковский район</t>
+  </si>
+  <si>
+    <t>Лысково</t>
+  </si>
+  <si>
+    <t>Павловский район</t>
+  </si>
+  <si>
+    <t>г. Павлово</t>
+  </si>
+  <si>
+    <t>Перевозский район</t>
+  </si>
+  <si>
+    <t>769.15</t>
+  </si>
+  <si>
+    <t>г. Перевоз</t>
+  </si>
+  <si>
+    <t>Пильнинский район</t>
+  </si>
+  <si>
+    <t>1312.94</t>
+  </si>
+  <si>
+    <t>р.п. Пильна</t>
+  </si>
+  <si>
+    <t>Починковский район</t>
+  </si>
+  <si>
+    <t>село Починки</t>
+  </si>
+  <si>
+    <t>Сергачский район</t>
+  </si>
+  <si>
+    <t>г. Сергач</t>
+  </si>
+  <si>
+    <t>Сеченовский район</t>
+  </si>
+  <si>
+    <t>село Сеченово</t>
+  </si>
+  <si>
+    <t>Сокольский район</t>
+  </si>
+  <si>
+    <t>р.п Сокольское</t>
+  </si>
+  <si>
+    <t>Сосновский район</t>
+  </si>
+  <si>
+    <t>р.п. Сосновское</t>
+  </si>
+  <si>
+    <t>Спасский район</t>
+  </si>
+  <si>
+    <t>село Спасское</t>
+  </si>
+  <si>
+    <t>Тонкинский район</t>
+  </si>
+  <si>
+    <t>р.п. Тонкино</t>
+  </si>
+  <si>
+    <t>Уренский район</t>
+  </si>
+  <si>
+    <t>г. Урень</t>
+  </si>
+  <si>
+    <t>Тоншаевский район</t>
+  </si>
+  <si>
+    <t>р.п. Тоншаево</t>
+  </si>
+  <si>
+    <t>Шарангский район</t>
+  </si>
+  <si>
+    <t>р.п. Шаранга</t>
+  </si>
+  <si>
+    <t>Шатковский район</t>
+  </si>
+  <si>
+    <t>р.п. Шатки</t>
+  </si>
+  <si>
+    <t>Город Нижний Новгород</t>
+  </si>
+  <si>
+    <t>г. Нижний Новгород</t>
+  </si>
+  <si>
+    <t>Город Арзамас</t>
+  </si>
+  <si>
+    <t>г. Арзамас</t>
+  </si>
+  <si>
+    <t>Город Бор</t>
+  </si>
+  <si>
+    <t>г. Бор</t>
+  </si>
+  <si>
+    <t>Город Выкса</t>
+  </si>
+  <si>
+    <t>г. Выкса</t>
+  </si>
+  <si>
+    <t>Город Дзержинск</t>
+  </si>
+  <si>
+    <t>г. Дзержинск</t>
+  </si>
+  <si>
+    <t>Город Кулебаки</t>
+  </si>
+  <si>
+    <t>г. Кулебаки</t>
+  </si>
+  <si>
+    <t>Навашинский</t>
+  </si>
+  <si>
+    <t>г. Навашино</t>
+  </si>
+  <si>
+    <t>Город Первомайск</t>
+  </si>
+  <si>
+    <t>г. Первомайск</t>
+  </si>
+  <si>
+    <t>ЗАТО город Саров</t>
+  </si>
+  <si>
+    <t>г. Саров</t>
+  </si>
+  <si>
+    <t>Семёновский</t>
+  </si>
+  <si>
+    <t>г. Семёнов</t>
+  </si>
+  <si>
+    <t>Город Чкаловск</t>
+  </si>
+  <si>
+    <t>г. Чкаловск</t>
+  </si>
+  <si>
+    <t>Город Шахунья</t>
+  </si>
+  <si>
+    <t>г. Шахунья</t>
+  </si>
+  <si>
+    <t>Номер района</t>
+  </si>
+  <si>
+    <t>Rus_Full</t>
+  </si>
+  <si>
+    <t>Rus_short</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>Население 2017</t>
+  </si>
+  <si>
+    <t>Площадь км2</t>
+  </si>
+  <si>
+    <t>1259013[6]</t>
+  </si>
+  <si>
+    <t>АРД</t>
+  </si>
+  <si>
+    <t>ОКАТО</t>
+  </si>
+  <si>
+    <t>Административный центр</t>
+  </si>
+  <si>
+    <t>Численность административного центра</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Rus_Name</t>
+  </si>
+  <si>
+    <t>Ардатовский</t>
+  </si>
+  <si>
+    <t>Арзамасский</t>
+  </si>
+  <si>
+    <t>Балахнинский</t>
+  </si>
+  <si>
+    <t>Богородский</t>
+  </si>
+  <si>
+    <t>Большеболдинский</t>
+  </si>
+  <si>
+    <t>Большемурашкинский</t>
+  </si>
+  <si>
+    <t>Бутурлинский</t>
+  </si>
+  <si>
+    <t>Вадский</t>
+  </si>
+  <si>
+    <t>Варнавинский</t>
+  </si>
+  <si>
+    <t>Вачский</t>
+  </si>
+  <si>
+    <t>Ветлужский</t>
+  </si>
+  <si>
+    <t>Вознесенский</t>
+  </si>
+  <si>
+    <t>Володарский</t>
+  </si>
+  <si>
+    <t>Воротынский</t>
+  </si>
+  <si>
+    <t>Воскресенский</t>
+  </si>
+  <si>
+    <t>Гагинский</t>
+  </si>
+  <si>
+    <t>Городецкий</t>
+  </si>
+  <si>
+    <t>Дальнеконстантиновский</t>
+  </si>
+  <si>
+    <t>Дивеевский</t>
+  </si>
+  <si>
+    <t>Княгининский</t>
+  </si>
+  <si>
+    <t>Ковернинский</t>
+  </si>
+  <si>
+    <t>Краснобаковский</t>
+  </si>
+  <si>
+    <t>Краснооктябрьский</t>
+  </si>
+  <si>
+    <t>Кстовский</t>
+  </si>
+  <si>
+    <t>Лукояновский</t>
+  </si>
+  <si>
+    <t>Лысковский</t>
+  </si>
+  <si>
+    <t>Павловский</t>
+  </si>
+  <si>
+    <t>Перевозский</t>
+  </si>
+  <si>
+    <t>Пильнинский</t>
+  </si>
+  <si>
+    <t>Починковский</t>
+  </si>
+  <si>
+    <t>Сергачский</t>
+  </si>
+  <si>
+    <t>Сеченовский</t>
+  </si>
+  <si>
+    <t>Сокольский</t>
+  </si>
+  <si>
+    <t>Сосновский</t>
+  </si>
+  <si>
+    <t>Спасский</t>
+  </si>
+  <si>
+    <t>Тонкинский</t>
+  </si>
+  <si>
+    <t>Уренский</t>
+  </si>
+  <si>
+    <t>Тоншаевский</t>
+  </si>
+  <si>
+    <t>Шарангский</t>
+  </si>
+  <si>
+    <t>Шатковский</t>
+  </si>
+  <si>
+    <t>Нижний Новгород</t>
+  </si>
+  <si>
+    <t>Арзамас</t>
+  </si>
+  <si>
+    <t>Бор</t>
+  </si>
+  <si>
+    <t>Дзержинск</t>
+  </si>
+  <si>
+    <t>Саров</t>
+  </si>
+  <si>
+    <t>Первомайск</t>
+  </si>
+  <si>
+    <t>Кулебаки</t>
+  </si>
+  <si>
+    <t>Чкаловск</t>
+  </si>
+  <si>
+    <t>Шахунья</t>
+  </si>
+  <si>
+    <t>район</t>
+  </si>
+  <si>
+    <t>населенный пункт</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -509,10 +1098,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -665,8 +1255,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1061,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63E06EF-2944-954C-9372-AAB458A1265C}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1103,227 +1700,227 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>0</v>
+      <c r="B3" s="1"/>
+      <c r="D3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="E5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1"/>
+      <c r="C5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="1"/>
+      <c r="C6" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="1"/>
+      <c r="B7" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="1"/>
+      <c r="B8" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="1"/>
+      <c r="C9" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>27</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1348,14 +1945,1519 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B23EB3C-EB86-634E-B7C6-182975E9E4FC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="52">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="57">
+        <v>23553</v>
+      </c>
+      <c r="I2" s="52">
+        <v>1887.63</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="57">
+        <v>8777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="52">
+        <v>2</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="57">
+        <v>41807</v>
+      </c>
+      <c r="I3" s="52">
+        <v>2010.84</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="57">
+        <v>104547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="52">
+        <v>3</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="57">
+        <v>76612</v>
+      </c>
+      <c r="I4" s="52">
+        <v>896.59</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="57">
+        <v>49364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="52">
+        <v>4</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="57">
+        <v>68103</v>
+      </c>
+      <c r="I5" s="52">
+        <v>1459</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="57">
+        <v>34388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="52">
+        <v>5</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="57">
+        <v>11180</v>
+      </c>
+      <c r="I6" s="52">
+        <v>866.47</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="57">
+        <v>5074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="52">
+        <v>6</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="57">
+        <v>9684</v>
+      </c>
+      <c r="I7" s="52">
+        <v>658.64</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="57">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="52">
+        <v>7</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="57">
+        <v>13614</v>
+      </c>
+      <c r="I8" s="52">
+        <v>1105.2</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="57">
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="52">
+        <v>8</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="57">
+        <v>14452</v>
+      </c>
+      <c r="I9" s="52">
+        <v>742.7</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="57">
+        <v>6698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="52">
+        <v>9</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="57">
+        <v>12377</v>
+      </c>
+      <c r="I10" s="52">
+        <v>2523.36</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="57">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="52">
+        <v>10</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="57">
+        <v>17749</v>
+      </c>
+      <c r="I11" s="52">
+        <v>979.49</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="57">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="52">
+        <v>11</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="57">
+        <v>14848</v>
+      </c>
+      <c r="I12" s="52">
+        <v>2992.37</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="57">
+        <v>8501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="52">
+        <v>12</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="57">
+        <v>15566</v>
+      </c>
+      <c r="I13" s="52">
+        <v>1302.92</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="57">
+        <v>6313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="52">
+        <v>13</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="57">
+        <v>58043</v>
+      </c>
+      <c r="I14" s="52">
+        <v>1049.6500000000001</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="57">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="52">
+        <v>14</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="57">
+        <v>18492</v>
+      </c>
+      <c r="I15" s="52">
+        <v>1935.81</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="57">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="52">
+        <v>15</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" s="57">
+        <v>19760</v>
+      </c>
+      <c r="I16" s="52">
+        <v>3554.5</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="57">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="52">
+        <v>16</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="57">
+        <v>11194</v>
+      </c>
+      <c r="I17" s="52">
+        <v>1064.18</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="57">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="52">
+        <v>17</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="57">
+        <v>88092</v>
+      </c>
+      <c r="I18" s="52">
+        <v>1482.72</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="57">
+        <v>30493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="52">
+        <v>18</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" s="57">
+        <v>21140</v>
+      </c>
+      <c r="I19" s="52">
+        <v>1377.09</v>
+      </c>
+      <c r="J19" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="57">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="52">
+        <v>19</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="57">
+        <v>15905</v>
+      </c>
+      <c r="I20" s="52">
+        <v>844.85</v>
+      </c>
+      <c r="J20" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="57">
+        <v>6408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="52">
+        <v>20</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="57">
+        <v>11855</v>
+      </c>
+      <c r="I21" s="52">
+        <v>769.92</v>
+      </c>
+      <c r="J21" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="57">
+        <v>7062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="52">
+        <v>21</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="57">
+        <v>18597</v>
+      </c>
+      <c r="I22" s="52">
+        <v>2339.7800000000002</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="57">
+        <v>6869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="52">
+        <v>22</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="57">
+        <v>21785</v>
+      </c>
+      <c r="I23" s="52">
+        <v>1757.82</v>
+      </c>
+      <c r="J23" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="57">
+        <v>7818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="52">
+        <v>23</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="57">
+        <v>10015</v>
+      </c>
+      <c r="I24" s="52">
+        <v>886.17</v>
+      </c>
+      <c r="J24" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" s="57">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="52">
+        <v>24</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="57">
+        <v>119630</v>
+      </c>
+      <c r="I25" s="52">
+        <v>1226.6400000000001</v>
+      </c>
+      <c r="J25" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" s="57">
+        <v>67723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="52">
+        <v>25</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" s="57">
+        <v>29897</v>
+      </c>
+      <c r="I26" s="52">
+        <v>1890.69</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="57">
+        <v>14136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="52">
+        <v>26</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="57">
+        <v>38348</v>
+      </c>
+      <c r="I27" s="52">
+        <v>2134.02</v>
+      </c>
+      <c r="J27" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="L27" s="57">
+        <v>21293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="52">
+        <v>27</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" s="57">
+        <v>95284</v>
+      </c>
+      <c r="I28" s="52">
+        <v>1097.1099999999999</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="57">
+        <v>58163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="52">
+        <v>28</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="57">
+        <v>15943</v>
+      </c>
+      <c r="I29" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="L29" s="57">
+        <v>8928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="52">
+        <v>29</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="57">
+        <v>19818</v>
+      </c>
+      <c r="I30" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="L30" s="57">
+        <v>6849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="52">
+        <v>30</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" s="57">
+        <v>28580</v>
+      </c>
+      <c r="I31" s="52">
+        <v>1960.59</v>
+      </c>
+      <c r="J31" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="L31" s="57">
+        <v>11891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="52">
+        <v>31</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="H32" s="57">
+        <v>28631</v>
+      </c>
+      <c r="I32" s="52">
+        <v>1243.76</v>
+      </c>
+      <c r="J32" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="L32" s="57">
+        <v>20416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="52">
+        <v>32</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" s="57">
+        <v>14326</v>
+      </c>
+      <c r="I33" s="52">
+        <v>991.04</v>
+      </c>
+      <c r="J33" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="L33" s="57">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="52">
+        <v>33</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" s="57">
+        <v>13136</v>
+      </c>
+      <c r="I34" s="52">
+        <v>1981.44</v>
+      </c>
+      <c r="J34" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="K34" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="57">
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="52">
+        <v>34</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" s="57">
+        <v>18118</v>
+      </c>
+      <c r="I35" s="52">
+        <v>1170.56</v>
+      </c>
+      <c r="J35" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="L35" s="57">
+        <v>8247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="52">
+        <v>35</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="57">
+        <v>9698</v>
+      </c>
+      <c r="I36" s="52">
+        <v>706.55</v>
+      </c>
+      <c r="J36" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="L36" s="57">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="52">
+        <v>36</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="57">
+        <v>7909</v>
+      </c>
+      <c r="I37" s="52">
+        <v>1018.48</v>
+      </c>
+      <c r="J37" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="L37" s="57">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="52">
+        <v>37</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="H38" s="57">
+        <v>28736</v>
+      </c>
+      <c r="I38" s="52">
+        <v>2104.29</v>
+      </c>
+      <c r="J38" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="K38" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="L38" s="57">
+        <v>12385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="52">
+        <v>38</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="H39" s="57">
+        <v>18878</v>
+      </c>
+      <c r="I39" s="52">
+        <v>2353.1</v>
+      </c>
+      <c r="J39" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="K39" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="L39" s="57">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="52">
+        <v>39</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" s="57">
+        <v>11825</v>
+      </c>
+      <c r="I40" s="52">
+        <v>1595.76</v>
+      </c>
+      <c r="J40" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="L40" s="57">
+        <v>6692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="52">
+        <v>40</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="57">
+        <v>24124</v>
+      </c>
+      <c r="I41" s="52">
+        <v>1440.72</v>
+      </c>
+      <c r="J41" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="L41" s="57">
+        <v>8796</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="52">
+        <v>41</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="57">
+        <v>1270241</v>
+      </c>
+      <c r="I42" s="52">
+        <v>410.68</v>
+      </c>
+      <c r="J42" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="K42" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="L42" s="57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="52">
+        <v>42</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" s="52"/>
+      <c r="D43" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="H43" s="57">
+        <v>104547</v>
+      </c>
+      <c r="I43" s="52">
+        <v>41.74</v>
+      </c>
+      <c r="J43" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="K43" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="L43" s="57">
+        <v>104547</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="52">
+        <v>43</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="52"/>
+      <c r="D44" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="H44" s="57">
+        <v>121843</v>
+      </c>
+      <c r="I44" s="52">
+        <v>3584.28</v>
+      </c>
+      <c r="J44" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="K44" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="L44" s="57">
+        <v>78385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="52">
+        <v>44</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="52"/>
+      <c r="D45" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="57">
+        <v>82656</v>
+      </c>
+      <c r="I45" s="52">
+        <v>1865.64</v>
+      </c>
+      <c r="J45" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="K45" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="L45" s="57">
+        <v>53406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="52">
+        <v>45</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="52"/>
+      <c r="D46" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="H46" s="57">
+        <v>242033</v>
+      </c>
+      <c r="I46" s="52">
+        <v>421.53</v>
+      </c>
+      <c r="J46" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="K46" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="57">
+        <v>231797</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="52">
+        <v>46</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="52"/>
+      <c r="D47" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="H47" s="57">
+        <v>48730</v>
+      </c>
+      <c r="I47" s="52">
+        <v>922.39</v>
+      </c>
+      <c r="J47" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="K47" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" s="57">
+        <v>32943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="52">
+        <v>47</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="52"/>
+      <c r="D48" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="H48" s="57">
+        <v>22519</v>
+      </c>
+      <c r="I48" s="52">
+        <v>1277.48</v>
+      </c>
+      <c r="J48" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="K48" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="L48" s="57">
+        <v>15051</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="52">
+        <v>48</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" s="52"/>
+      <c r="D49" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" s="57">
+        <v>18508</v>
+      </c>
+      <c r="I49" s="52">
+        <v>1227.32</v>
+      </c>
+      <c r="J49" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="K49" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="L49" s="57">
+        <v>13626</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="52">
+        <v>49</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="H50" s="57">
+        <v>95065</v>
+      </c>
+      <c r="I50" s="52">
+        <v>232</v>
+      </c>
+      <c r="J50" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="K50" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="L50" s="57">
+        <v>95065</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="52">
+        <v>50</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H51" s="57">
+        <v>47868</v>
+      </c>
+      <c r="I51" s="52">
+        <v>3877.38</v>
+      </c>
+      <c r="J51" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="K51" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="L51" s="57">
+        <v>24536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="H52" s="57">
+        <v>20183</v>
+      </c>
+      <c r="I52" s="52">
+        <v>861.52</v>
+      </c>
+      <c r="J52" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="K52" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="L52" s="57">
+        <v>11569</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="52">
+        <v>52</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="H53" s="57">
+        <v>36216</v>
+      </c>
+      <c r="I53" s="52">
+        <v>2588.25</v>
+      </c>
+      <c r="J53" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="L53" s="57">
+        <v>20183</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" tooltip="Ардатовский район (Нижегородская область)" display="https://ru.wikipedia.org/wiki/%D0%90%D1%80%D0%B4%D0%B0%D1%82%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD_(%D0%9D%D0%B8%D0%B6%D0%B5%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%B0%D1%8F_%D0%BE%D0%B1%D0%BB%D0%B0%D1%81%D1%82%D1%8C)" xr:uid="{BC28CABC-242F-624D-B463-FB46625BD6A1}"/>
+    <hyperlink ref="J3" r:id="rId2" tooltip="Арзамасский район" display="https://ru.wikipedia.org/wiki/%D0%90%D1%80%D0%B7%D0%B0%D0%BC%D0%B0%D1%81%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{A7AAEBE7-6807-3D45-9B10-2C556C092160}"/>
+    <hyperlink ref="J4" r:id="rId3" tooltip="Балахнинский район" display="https://ru.wikipedia.org/wiki/%D0%91%D0%B0%D0%BB%D0%B0%D1%85%D0%BD%D0%B8%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{59B49BF3-7CDC-454A-8F42-87120A579167}"/>
+    <hyperlink ref="J5" r:id="rId4" tooltip="Богородский район (Нижегородская область)" display="https://ru.wikipedia.org/wiki/%D0%91%D0%BE%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD_(%D0%9D%D0%B8%D0%B6%D0%B5%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%B0%D1%8F_%D0%BE%D0%B1%D0%BB%D0%B0%D1%81%D1%82%D1%8C)" xr:uid="{AE0BAE78-BD99-9B4E-8464-5E0D7059817D}"/>
+    <hyperlink ref="J6" r:id="rId5" tooltip="Большеболдинский район" display="https://ru.wikipedia.org/wiki/%D0%91%D0%BE%D0%BB%D1%8C%D1%88%D0%B5%D0%B1%D0%BE%D0%BB%D0%B4%D0%B8%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{8240A44E-A2E2-954B-9CAF-5F0688060B1E}"/>
+    <hyperlink ref="J7" r:id="rId6" tooltip="Большемурашкинский район" display="https://ru.wikipedia.org/wiki/%D0%91%D0%BE%D0%BB%D1%8C%D1%88%D0%B5%D0%BC%D1%83%D1%80%D0%B0%D1%88%D0%BA%D0%B8%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{EAF5BF84-6B10-D547-B2E8-5B9FAFBC0389}"/>
+    <hyperlink ref="J8" r:id="rId7" tooltip="Бутурлинский район" display="https://ru.wikipedia.org/wiki/%D0%91%D1%83%D1%82%D1%83%D1%80%D0%BB%D0%B8%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{92964BDC-01AF-6D42-B2FD-F421F4202FB9}"/>
+    <hyperlink ref="J9" r:id="rId8" tooltip="Вадский район" display="https://ru.wikipedia.org/wiki/%D0%92%D0%B0%D0%B4%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{32257F19-A733-AB46-924F-B094016BD0D2}"/>
+    <hyperlink ref="J10" r:id="rId9" tooltip="Варнавинский район" display="https://ru.wikipedia.org/wiki/%D0%92%D0%B0%D1%80%D0%BD%D0%B0%D0%B2%D0%B8%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{F07BB5B9-F177-5442-A9E2-587ED4C4F310}"/>
+    <hyperlink ref="J11" r:id="rId10" tooltip="Вачский район" display="https://ru.wikipedia.org/wiki/%D0%92%D0%B0%D1%87%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{71FD3B9E-7E61-174A-AD48-F7858B591026}"/>
+    <hyperlink ref="J12" r:id="rId11" tooltip="Ветлужский район" display="https://ru.wikipedia.org/wiki/%D0%92%D0%B5%D1%82%D0%BB%D1%83%D0%B6%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{786F4F11-59C1-584D-A708-BF0C16B29E82}"/>
+    <hyperlink ref="J13" r:id="rId12" tooltip="Вознесенский район (Нижегородская область)" display="https://ru.wikipedia.org/wiki/%D0%92%D0%BE%D0%B7%D0%BD%D0%B5%D1%81%D0%B5%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD_(%D0%9D%D0%B8%D0%B6%D0%B5%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%B0%D1%8F_%D0%BE%D0%B1%D0%BB%D0%B0%D1%81%D1%82%D1%8C)" xr:uid="{BB3C1023-5E78-9A43-AD85-8FC0802B38D6}"/>
+    <hyperlink ref="J14" r:id="rId13" tooltip="Володарский район (Нижегородская область)" display="https://ru.wikipedia.org/wiki/%D0%92%D0%BE%D0%BB%D0%BE%D0%B4%D0%B0%D1%80%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD_(%D0%9D%D0%B8%D0%B6%D0%B5%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%B0%D1%8F_%D0%BE%D0%B1%D0%BB%D0%B0%D1%81%D1%82%D1%8C)" xr:uid="{38F66AE8-5684-B240-85F9-3DFAAE4C3E1B}"/>
+    <hyperlink ref="J15" r:id="rId14" tooltip="Воротынский район" display="https://ru.wikipedia.org/wiki/%D0%92%D0%BE%D1%80%D0%BE%D1%82%D1%8B%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{9CC54376-FDD4-FB49-BD46-DEF8FD9473E7}"/>
+    <hyperlink ref="J16" r:id="rId15" tooltip="Воскресенский район (Нижегородская область)" display="https://ru.wikipedia.org/wiki/%D0%92%D0%BE%D1%81%D0%BA%D1%80%D0%B5%D1%81%D0%B5%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD_(%D0%9D%D0%B8%D0%B6%D0%B5%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%B0%D1%8F_%D0%BE%D0%B1%D0%BB%D0%B0%D1%81%D1%82%D1%8C)" xr:uid="{8833E109-6AB4-E645-91BF-C713E42A9E86}"/>
+    <hyperlink ref="J17" r:id="rId16" tooltip="Гагинский район" display="https://ru.wikipedia.org/wiki/%D0%93%D0%B0%D0%B3%D0%B8%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{1AA005F3-CD10-DE4F-AC0A-183AB749EB9F}"/>
+    <hyperlink ref="J18" r:id="rId17" tooltip="Городецкий район" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D0%BE%D0%B4%D0%B5%D1%86%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{49768619-DF13-FC46-9390-E1F5115ECA72}"/>
+    <hyperlink ref="J19" r:id="rId18" tooltip="Дальнеконстантиновский район" display="https://ru.wikipedia.org/wiki/%D0%94%D0%B0%D0%BB%D1%8C%D0%BD%D0%B5%D0%BA%D0%BE%D0%BD%D1%81%D1%82%D0%B0%D0%BD%D1%82%D0%B8%D0%BD%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{B1B379D0-6119-A343-9809-3B1A5C7BA398}"/>
+    <hyperlink ref="J20" r:id="rId19" tooltip="Дивеевский район" display="https://ru.wikipedia.org/wiki/%D0%94%D0%B8%D0%B2%D0%B5%D0%B5%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{72190A4A-4904-B645-88AE-EA81D7A3874E}"/>
+    <hyperlink ref="J21" r:id="rId20" tooltip="Княгининский район" display="https://ru.wikipedia.org/wiki/%D0%9A%D0%BD%D1%8F%D0%B3%D0%B8%D0%BD%D0%B8%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{7C84929F-3944-7047-92B2-13568602F99E}"/>
+    <hyperlink ref="J22" r:id="rId21" tooltip="Ковернинский район" display="https://ru.wikipedia.org/wiki/%D0%9A%D0%BE%D0%B2%D0%B5%D1%80%D0%BD%D0%B8%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{341A3B30-43F1-6E42-A4E1-C59B47FA4238}"/>
+    <hyperlink ref="J23" r:id="rId22" tooltip="Краснобаковский район" display="https://ru.wikipedia.org/wiki/%D0%9A%D1%80%D0%B0%D1%81%D0%BD%D0%BE%D0%B1%D0%B0%D0%BA%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{E5E6FBFA-35FC-2C41-B6D3-5E95C2D917EF}"/>
+    <hyperlink ref="J24" r:id="rId23" tooltip="Краснооктябрьский район (Нижегородская область)" display="https://ru.wikipedia.org/wiki/%D0%9A%D1%80%D0%B0%D1%81%D0%BD%D0%BE%D0%BE%D0%BA%D1%82%D1%8F%D0%B1%D1%80%D1%8C%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD_(%D0%9D%D0%B8%D0%B6%D0%B5%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%B0%D1%8F_%D0%BE%D0%B1%D0%BB%D0%B0%D1%81%D1%82%D1%8C)" xr:uid="{DAF3F130-6DCF-D242-95A0-46F3DE381A96}"/>
+    <hyperlink ref="J25" r:id="rId24" tooltip="Кстовский район" display="https://ru.wikipedia.org/wiki/%D0%9A%D1%81%D1%82%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{DFEE3E56-CC79-D04C-81E2-DE33F63D9BB0}"/>
+    <hyperlink ref="J26" r:id="rId25" tooltip="Лукояновский район" display="https://ru.wikipedia.org/wiki/%D0%9B%D1%83%D0%BA%D0%BE%D1%8F%D0%BD%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{1E81CD74-C863-664B-9D54-29C9B119A121}"/>
+    <hyperlink ref="J27" r:id="rId26" tooltip="Лысковский район" display="https://ru.wikipedia.org/wiki/%D0%9B%D1%8B%D1%81%D0%BA%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{1AD26EBC-803E-6A45-8223-B03EBFF6B84E}"/>
+    <hyperlink ref="J28" r:id="rId27" tooltip="Павловский район (Нижегородская область)" display="https://ru.wikipedia.org/wiki/%D0%9F%D0%B0%D0%B2%D0%BB%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD_(%D0%9D%D0%B8%D0%B6%D0%B5%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%B0%D1%8F_%D0%BE%D0%B1%D0%BB%D0%B0%D1%81%D1%82%D1%8C)" xr:uid="{A62ED397-1EF4-FD4D-BFC1-B8DF7E0AB77A}"/>
+    <hyperlink ref="J29" r:id="rId28" tooltip="Перевозский район" display="https://ru.wikipedia.org/wiki/%D0%9F%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B7%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{A91DC975-E383-5248-AF79-DF29A89FF119}"/>
+    <hyperlink ref="J30" r:id="rId29" tooltip="Пильнинский район" display="https://ru.wikipedia.org/wiki/%D0%9F%D0%B8%D0%BB%D1%8C%D0%BD%D0%B8%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{477A2941-FB5D-3E48-B6FA-973261A8B4C7}"/>
+    <hyperlink ref="J31" r:id="rId30" tooltip="Починковский район (Нижегородская область)" display="https://ru.wikipedia.org/wiki/%D0%9F%D0%BE%D1%87%D0%B8%D0%BD%D0%BA%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD_(%D0%9D%D0%B8%D0%B6%D0%B5%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%B0%D1%8F_%D0%BE%D0%B1%D0%BB%D0%B0%D1%81%D1%82%D1%8C)" xr:uid="{19694785-7116-A041-99A7-FE7564ED521B}"/>
+    <hyperlink ref="J32" r:id="rId31" tooltip="Сергачский район" display="https://ru.wikipedia.org/wiki/%D0%A1%D0%B5%D1%80%D0%B3%D0%B0%D1%87%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{5495CB57-A944-244D-B6AC-7FC3A7131FCC}"/>
+    <hyperlink ref="J33" r:id="rId32" tooltip="Сеченовский район" display="https://ru.wikipedia.org/wiki/%D0%A1%D0%B5%D1%87%D0%B5%D0%BD%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{29B3725A-506D-FC48-9174-5783B0D08224}"/>
+    <hyperlink ref="J34" r:id="rId33" tooltip="Сокольский район (Нижегородская область)" display="https://ru.wikipedia.org/wiki/%D0%A1%D0%BE%D0%BA%D0%BE%D0%BB%D1%8C%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD_(%D0%9D%D0%B8%D0%B6%D0%B5%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%B0%D1%8F_%D0%BE%D0%B1%D0%BB%D0%B0%D1%81%D1%82%D1%8C)" xr:uid="{1ECEEE95-2069-944E-979D-1D1651C052DB}"/>
+    <hyperlink ref="J35" r:id="rId34" tooltip="Сосновский район (Нижегородская область)" display="https://ru.wikipedia.org/wiki/%D0%A1%D0%BE%D1%81%D0%BD%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD_(%D0%9D%D0%B8%D0%B6%D0%B5%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%B0%D1%8F_%D0%BE%D0%B1%D0%BB%D0%B0%D1%81%D1%82%D1%8C)" xr:uid="{F44BFEE0-394D-5D4C-ABEA-B1A986C1A516}"/>
+    <hyperlink ref="J36" r:id="rId35" tooltip="Спасский район (Нижегородская область)" display="https://ru.wikipedia.org/wiki/%D0%A1%D0%BF%D0%B0%D1%81%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD_(%D0%9D%D0%B8%D0%B6%D0%B5%D0%B3%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%B0%D1%8F_%D0%BE%D0%B1%D0%BB%D0%B0%D1%81%D1%82%D1%8C)" xr:uid="{4979B59A-5207-3341-8D20-383975886556}"/>
+    <hyperlink ref="J37" r:id="rId36" tooltip="Тонкинский район" display="https://ru.wikipedia.org/wiki/%D0%A2%D0%BE%D0%BD%D0%BA%D0%B8%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{0D5B2AD4-69B3-9C46-B0FC-463E80392D38}"/>
+    <hyperlink ref="J38" r:id="rId37" tooltip="Уренский район" display="https://ru.wikipedia.org/wiki/%D0%A3%D1%80%D0%B5%D0%BD%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{EFA3DB09-F95A-3249-A452-C402D25D04A3}"/>
+    <hyperlink ref="J39" r:id="rId38" tooltip="Тоншаевский район" display="https://ru.wikipedia.org/wiki/%D0%A2%D0%BE%D0%BD%D1%88%D0%B0%D0%B5%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{04789108-947A-4A4D-8B6C-DA274517B81E}"/>
+    <hyperlink ref="J40" r:id="rId39" tooltip="Шарангский район" display="https://ru.wikipedia.org/wiki/%D0%A8%D0%B0%D1%80%D0%B0%D0%BD%D0%B3%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{10F4CAD0-80E4-F447-9AAD-BF04ABC474FC}"/>
+    <hyperlink ref="J41" r:id="rId40" tooltip="Шатковский район" display="https://ru.wikipedia.org/wiki/%D0%A8%D0%B0%D1%82%D0%BA%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9_%D1%80%D0%B0%D0%B9%D0%BE%D0%BD" xr:uid="{100AC8B7-37C6-184C-A42F-96DDB609E8C3}"/>
+    <hyperlink ref="J42" r:id="rId41" tooltip="Городской округ город Нижний Новгород" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%BE%D0%B9_%D0%BE%D0%BA%D1%80%D1%83%D0%B3_%D0%B3%D0%BE%D1%80%D0%BE%D0%B4_%D0%9D%D0%B8%D0%B6%D0%BD%D0%B8%D0%B9_%D0%9D%D0%BE%D0%B2%D0%B3%D0%BE%D1%80%D0%BE%D0%B4" xr:uid="{4021B53A-1DDC-D84E-9EC8-33FE35B275A3}"/>
+    <hyperlink ref="J43" r:id="rId42" tooltip="Городской округ город Арзамас" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%BE%D0%B9_%D0%BE%D0%BA%D1%80%D1%83%D0%B3_%D0%B3%D0%BE%D1%80%D0%BE%D0%B4_%D0%90%D1%80%D0%B7%D0%B0%D0%BC%D0%B0%D1%81" xr:uid="{D4CEB764-238B-EC4D-A7A0-FFF60E1AD740}"/>
+    <hyperlink ref="J44" r:id="rId43" tooltip="Городской округ город Бор" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%BE%D0%B9_%D0%BE%D0%BA%D1%80%D1%83%D0%B3_%D0%B3%D0%BE%D1%80%D0%BE%D0%B4_%D0%91%D0%BE%D1%80" xr:uid="{0E32C0FC-58D4-7943-8F8F-314C3A7DF733}"/>
+    <hyperlink ref="J45" r:id="rId44" tooltip="Городской округ город Выкса" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%BE%D0%B9_%D0%BE%D0%BA%D1%80%D1%83%D0%B3_%D0%B3%D0%BE%D1%80%D0%BE%D0%B4_%D0%92%D1%8B%D0%BA%D1%81%D0%B0" xr:uid="{71A0DB09-FA82-BD4E-B191-0CDB73716F89}"/>
+    <hyperlink ref="J46" r:id="rId45" tooltip="Городской округ город Дзержинск" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%BE%D0%B9_%D0%BE%D0%BA%D1%80%D1%83%D0%B3_%D0%B3%D0%BE%D1%80%D0%BE%D0%B4_%D0%94%D0%B7%D0%B5%D1%80%D0%B6%D0%B8%D0%BD%D1%81%D0%BA" xr:uid="{48A07607-8088-EF45-B8CA-74AC49795020}"/>
+    <hyperlink ref="J47" r:id="rId46" tooltip="Городской округ город Кулебаки" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%BE%D0%B9_%D0%BE%D0%BA%D1%80%D1%83%D0%B3_%D0%B3%D0%BE%D1%80%D0%BE%D0%B4_%D0%9A%D1%83%D0%BB%D0%B5%D0%B1%D0%B0%D0%BA%D0%B8" xr:uid="{DF01E7D9-3510-F744-8B05-8AD319EF2DA1}"/>
+    <hyperlink ref="J48" r:id="rId47" tooltip="Городской округ Навашинский" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%BE%D0%B9_%D0%BE%D0%BA%D1%80%D1%83%D0%B3_%D0%9D%D0%B0%D0%B2%D0%B0%D1%88%D0%B8%D0%BD%D1%81%D0%BA%D0%B8%D0%B9" xr:uid="{180C136D-9B96-1642-B13A-784B5E9BC088}"/>
+    <hyperlink ref="J49" r:id="rId48" tooltip="Городской округ город Первомайск" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%BE%D0%B9_%D0%BE%D0%BA%D1%80%D1%83%D0%B3_%D0%B3%D0%BE%D1%80%D0%BE%D0%B4_%D0%9F%D0%B5%D1%80%D0%B2%D0%BE%D0%BC%D0%B0%D0%B9%D1%81%D0%BA" xr:uid="{ED6AD762-A391-9240-B180-CC17923F558B}"/>
+    <hyperlink ref="J50" r:id="rId49" tooltip="Городской округ ЗАТО город Саров" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%BE%D0%B9_%D0%BE%D0%BA%D1%80%D1%83%D0%B3_%D0%97%D0%90%D0%A2%D0%9E_%D0%B3%D0%BE%D1%80%D0%BE%D0%B4_%D0%A1%D0%B0%D1%80%D0%BE%D0%B2" xr:uid="{732A34F7-EBE6-804B-94E4-2988CEA2DF4E}"/>
+    <hyperlink ref="J51" r:id="rId50" tooltip="Городской округ Семёновский" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%BE%D0%B9_%D0%BE%D0%BA%D1%80%D1%83%D0%B3_%D0%A1%D0%B5%D0%BC%D1%91%D0%BD%D0%BE%D0%B2%D1%81%D0%BA%D0%B8%D0%B9" xr:uid="{033ADEE9-427B-824E-8268-E16C5EC320A4}"/>
+    <hyperlink ref="J52" r:id="rId51" tooltip="Городской округ город Чкаловск" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%BE%D0%B9_%D0%BE%D0%BA%D1%80%D1%83%D0%B3_%D0%B3%D0%BE%D1%80%D0%BE%D0%B4_%D0%A7%D0%BA%D0%B0%D0%BB%D0%BE%D0%B2%D1%81%D0%BA" xr:uid="{EB1EDEF9-2282-3D42-BCA2-44B941B3C982}"/>
+    <hyperlink ref="J53" r:id="rId52" tooltip="Городской округ город Шахунья" display="https://ru.wikipedia.org/wiki/%D0%93%D0%BE%D1%80%D0%BE%D0%B4%D1%81%D0%BA%D0%BE%D0%B9_%D0%BE%D0%BA%D1%80%D1%83%D0%B3_%D0%B3%D0%BE%D1%80%D0%BE%D0%B4_%D0%A8%D0%B0%D1%85%D1%83%D0%BD%D1%8C%D1%8F" xr:uid="{0962DCF5-DAF3-DE4C-A204-6DF7637CA791}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>